--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H2">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I2">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J2">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N2">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O2">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P2">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q2">
-        <v>0.6180842965877777</v>
+        <v>0.01684983457966666</v>
       </c>
       <c r="R2">
-        <v>5.56275866929</v>
+        <v>0.151648511217</v>
       </c>
       <c r="S2">
-        <v>0.1363678944737449</v>
+        <v>0.008296953052854661</v>
       </c>
       <c r="T2">
-        <v>0.1363678944737449</v>
+        <v>0.008296953052854661</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H3">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I3">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J3">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O3">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P3">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q3">
-        <v>1.248883282471111</v>
+        <v>0.09680920442666664</v>
       </c>
       <c r="R3">
-        <v>11.23994954224</v>
+        <v>0.8712828398399999</v>
       </c>
       <c r="S3">
-        <v>0.2755410299440575</v>
+        <v>0.04766939523439243</v>
       </c>
       <c r="T3">
-        <v>0.2755410299440575</v>
+        <v>0.04766939523439243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H4">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I4">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J4">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.942599</v>
       </c>
       <c r="O4">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P4">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q4">
-        <v>0.3624822822256668</v>
+        <v>0.028098399469</v>
       </c>
       <c r="R4">
-        <v>3.262340540031</v>
+        <v>0.252885595221</v>
       </c>
       <c r="S4">
-        <v>0.07997444019212668</v>
+        <v>0.01383580949429482</v>
       </c>
       <c r="T4">
-        <v>0.07997444019212668</v>
+        <v>0.01383580949429482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.261615</v>
       </c>
       <c r="I5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N5">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O5">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P5">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q5">
-        <v>0.4643317935722222</v>
+        <v>0.1632982589605555</v>
       </c>
       <c r="R5">
-        <v>4.178986142149999</v>
+        <v>1.469684330645</v>
       </c>
       <c r="S5">
-        <v>0.1024454906494604</v>
+        <v>0.08040897860466921</v>
       </c>
       <c r="T5">
-        <v>0.1024454906494604</v>
+        <v>0.08040897860466921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.261615</v>
       </c>
       <c r="I6">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J6">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O6">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P6">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q6">
         <v>0.9382154144888887</v>
@@ -818,10 +818,10 @@
         <v>8.443938730399999</v>
       </c>
       <c r="S6">
-        <v>0.20699840028777</v>
+        <v>0.4619825322720101</v>
       </c>
       <c r="T6">
-        <v>0.20699840028777</v>
+        <v>0.4619825322720101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.261615</v>
       </c>
       <c r="I7">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J7">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.942599</v>
       </c>
       <c r="O7">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P7">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q7">
         <v>0.2723124485983333</v>
@@ -880,10 +880,10 @@
         <v>2.450812037385</v>
       </c>
       <c r="S7">
-        <v>0.06008027620075748</v>
+        <v>0.1340881770112289</v>
       </c>
       <c r="T7">
-        <v>0.06008027620075748</v>
+        <v>0.1340881770112289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.473177</v>
       </c>
       <c r="I8">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J8">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N8">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O8">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P8">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q8">
-        <v>0.1741506918411111</v>
+        <v>0.06124608559677779</v>
       </c>
       <c r="R8">
-        <v>1.56735622657</v>
+        <v>0.551214770371</v>
       </c>
       <c r="S8">
-        <v>0.03842285477664717</v>
+        <v>0.03015791605935374</v>
       </c>
       <c r="T8">
-        <v>0.03842285477664717</v>
+        <v>0.03015791605935374</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.473177</v>
       </c>
       <c r="I9">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J9">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O9">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P9">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q9">
         <v>0.3518838593244444</v>
@@ -1004,10 +1004,10 @@
         <v>3.16695473392</v>
       </c>
       <c r="S9">
-        <v>0.07763611089989116</v>
+        <v>0.173269585945691</v>
       </c>
       <c r="T9">
-        <v>0.07763611089989114</v>
+        <v>0.173269585945691</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.473177</v>
       </c>
       <c r="I10">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J10">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.942599</v>
       </c>
       <c r="O10">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P10">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q10">
         <v>0.1021325741136667</v>
@@ -1066,10 +1066,10 @@
         <v>0.919193167023</v>
       </c>
       <c r="S10">
-        <v>0.0225335025755447</v>
+        <v>0.05029065232550522</v>
       </c>
       <c r="T10">
-        <v>0.0225335025755447</v>
+        <v>0.05029065232550522</v>
       </c>
     </row>
   </sheetData>
